--- a/Excel reports/x_train_dataset.xlsx
+++ b/Excel reports/x_train_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2201"/>
+  <dimension ref="A1:H2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57670,6 +57670,1306 @@
         <v>0.7553409904181578</v>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>0.4488135581823371</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>0.4915253601687984</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>0.3518643974867485</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>0.4569490779360654</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0.5284878591621549</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>0.6741283842529959</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>0.7553409904181578</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>0.4847456741661881</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>0.5477965341604802</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>0.4101693867609849</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.4352541861771165</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.5018496668807154</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>0.6373785076259374</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>0.7297340460788746</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>0.3518643974867485</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>0.4738982282867136</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>0.3355932286675368</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.4142372759496041</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.4768175551861122</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>0.6030490873680399</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>0.704494304468533</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>0.4691524868784129</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>0.6338982489765944</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>0.3728813077142609</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.5403388666264335</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.4949665013119182</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>0.5934013611001006</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>0.691361869441165</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>0.5864405762700774</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>0.6338982489765944</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>0.4162710912321587</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.624406766159993</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.5319494341256538</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.598171423417007</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.6860054611786712</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>0.6610168636752806</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>0.7552542275568781</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>0.565423666042565</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.7091525179132342</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.5825788866363911</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.6152454379548881</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.6878572257174361</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>0.6176270801573828</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>0.6942371828451405</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>0.4691524868784129</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.4847456741661881</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.5546265402163332</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.595168551218165</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.6716083015933363</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B2209" t="n">
+        <v>0.5030507875797093</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>0.5199999379303576</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>0.2257626774981641</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.3342372656046637</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.4916581760415705</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.5550252765083956</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.6446186187142425</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>0.3484744898295658</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>0.460338985593248</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>0.3125423738457148</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.4494914104020186</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.4796105287159843</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>0.5387892971074146</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>0.6290084420492646</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>0.4772881359438963</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>0.5315253653412686</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>0.3335592840732272</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.3423727853583921</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.4403997448995293</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.5085713722229497</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.6060775895139948</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>0.3383050254815279</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>0.4298304632373793</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>0.1891525799828765</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.2237287329038545</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.3784937414721937</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.4647494277123196</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.5754896809851836</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>0.2176271577444358</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>0.3579661019579222</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>0.1925423583283042</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.2074575640846428</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.3296262622186077</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.4251660640772925</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.5460471116331402</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2214" t="n">
+        <v>0.2657626826706343</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>0.2874575744295832</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>0.05355937717769078</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.1633897990353085</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.2821301298805223</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.3848927925323718</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.5154345266253137</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2215" t="n">
+        <v>0.200000025862351</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>0.3213558751308797</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>0.1749152264462194</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.2420338463173758</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.2706740488624805</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.3629144931146801</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.4935624722006787</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>0.2176271577444358</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>0.2216949176212999</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.09152543775585138</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.2194887314034435</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.3211623307517833</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.4613995094450926</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B2217" t="n">
+        <v>0.05559319246024536</v>
+      </c>
+      <c r="C2217" t="n">
+        <v>0.1586440576270078</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>0.01220340894234752</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.1471186302160968</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.1988115596356301</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.2943863768232162</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.4362570391067728</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B2218" t="n">
+        <v>0.1545762977501436</v>
+      </c>
+      <c r="C2218" t="n">
+        <v>0.1810169309173932</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>0.06033893386854607</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.08338978869036805</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.1658339107941268</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.2619253632643164</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.4080276590734603</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B2219" t="n">
+        <v>0.1016949021038893</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>0.3647456586487775</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>0.08745767787898721</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.3457626930155747</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.2172421342859691</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.2748234139952793</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.4030464617888295</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>0.3430507668898286</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>0.4271185371116332</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>0.2996609833719308</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.4250847218290786</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.2766257307268575</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.2979405382774022</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>0.4048095225920495</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>0.4542372811220743</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>0.4752541913495867</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>0.2759321470186722</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.3274575796020534</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.2911491161197706</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>0.3024816215581178</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>0.3986213671528498</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>0.2799999068955364</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>0.5077965289880101</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>0.2427118278488123</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.364067806429096</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.3119830276367208</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>0.311956419230576</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>0.3958570822949494</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>0.3477965082981293</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>0.4922033417002349</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>0.2284746036239102</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.4027118485386931</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.3379055478944271</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.3259187929702863</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>0.3964054635944488</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>0.3905084395963456</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>0.4854236556976246</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>0.2406778832545027</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.4786439696950143</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.3781165255517378</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.3494149740048597</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>0.402984544082494</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>0.4535592995906378</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>0.5125422703963108</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>0.2983050203090577</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.352542379018185</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.3708096265421513</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.3498961132376789</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>0.3989491708773493</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>0.4006779039443835</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>0.2657626826706343</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.5369490882810058</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.5018496668807154</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.6373785076259374</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>0.7297340460788746</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>0.4847456741661881</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>0.5477965341604802</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>0.4101693867609849</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.4352541861771165</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.5018496668807154</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.6373785076259374</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.7297340460788746</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>0.3518643974867485</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>0.4738982282867136</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>0.3355932286675368</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.4142372759496041</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.4768175551861122</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.6030490873680399</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.704494304468533</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>0.4691524868784129</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>0.6338982489765944</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>0.3728813077142609</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.5403388666264335</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.4949665013119182</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.5934013611001006</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.691361869441165</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>0.5864405762700774</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>0.6338982489765944</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>0.4162710912321587</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.624406766159993</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.5319494341256538</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.598171423417007</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.6860054611786712</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>0.6610168636752806</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>0.7552542275568781</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>0.565423666042565</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.7091525179132342</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0.5825788866363911</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.6152454379548881</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>0.6878572257174361</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>0.6176270801573828</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>0.6942371828451405</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>0.4691524868784129</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.4847456741661881</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.5546265402163332</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>0.595168551218165</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>0.6716083015933363</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>0.5030507875797093</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>0.5199999379303576</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>0.2257626774981641</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.3342372656046637</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.4916581760415705</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.5550252765083956</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.6446186187142425</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>0.3484744898295658</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>0.460338985593248</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>0.3125423738457148</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.4494914104020186</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.4796105287159843</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.5387892971074146</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.6290084420492646</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>0.4772881359438963</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>0.5315253653412686</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>0.3335592840732272</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.3423727853583921</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.4403997448995293</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.5085713722229497</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.6060775895139948</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>0.3383050254815279</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>0.4298304632373793</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>0.1891525799828765</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.2237287329038545</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.3784937414721937</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.4647494277123196</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.5754896809851836</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>0.2176271577444358</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>0.3579661019579222</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>0.1925423583283042</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.2074575640846428</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.3296262622186077</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.4251660640772925</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.5460471116331402</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>0.2657626826706343</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>0.2874575744295832</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>0.05355937717769078</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.1633897990353085</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.2821301298805223</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>0.3848927925323718</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>0.5154345266253137</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2239" t="n">
+        <v>0.200000025862351</v>
+      </c>
+      <c r="C2239" t="n">
+        <v>0.3213558751308797</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>0.1749152264462194</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.2420338463173758</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.2706740488624805</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.3629144931146801</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.4935624722006787</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2240" t="n">
+        <v>0.2176271577444358</v>
+      </c>
+      <c r="C2240" t="n">
+        <v>0.2216949176212999</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.09152543775585138</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.2194887314034435</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.3211623307517833</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>0.4613995094450926</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B2241" t="n">
+        <v>0.05559319246024536</v>
+      </c>
+      <c r="C2241" t="n">
+        <v>0.1586440576270078</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>0.01220340894234752</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.1471186302160968</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.1988115596356301</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.2943863768232162</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>0.4362570391067728</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B2242" t="n">
+        <v>0.1545762977501436</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>0.1810169309173932</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>0.06033893386854607</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.08338978869036805</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.1658339107941268</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>0.2619253632643164</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>0.4080276590734603</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B2243" t="n">
+        <v>0.1016949021038893</v>
+      </c>
+      <c r="C2243" t="n">
+        <v>0.3647456586487775</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>0.08745767787898721</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>0.3457626930155747</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0.2172421342859691</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>0.2748234139952793</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>0.4030464617888295</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B2244" t="n">
+        <v>0.3430507668898286</v>
+      </c>
+      <c r="C2244" t="n">
+        <v>0.4271185371116332</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>0.2996609833719308</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.4250847218290786</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0.2766257307268575</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.2979405382774022</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>0.4048095225920495</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B2245" t="n">
+        <v>0.4542372811220743</v>
+      </c>
+      <c r="C2245" t="n">
+        <v>0.4752541913495867</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>0.2759321470186722</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.3274575796020534</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.2911491161197706</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.3024816215581178</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.3986213671528498</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B2246" t="n">
+        <v>0.2799999068955364</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>0.5077965289880101</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>0.2427118278488123</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.364067806429096</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.3119830276367208</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.311956419230576</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.3958570822949494</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B2247" t="n">
+        <v>0.3477965082981293</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>0.4922033417002349</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>0.2284746036239102</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.4027118485386931</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.3379055478944271</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.3259187929702863</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>0.3964054635944488</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2248" t="n">
+        <v>0.3905084395963456</v>
+      </c>
+      <c r="C2248" t="n">
+        <v>0.4854236556976246</v>
+      </c>
+      <c r="D2248" t="n">
+        <v>0.2406778832545027</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.4786439696950143</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.3781165255517378</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>0.3494149740048597</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>0.402984544082494</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2249" t="n">
+        <v>0.4535592995906378</v>
+      </c>
+      <c r="C2249" t="n">
+        <v>0.5125422703963108</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>0.2983050203090577</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.352542379018185</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.3708096265421513</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>0.3498961132376789</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>0.3989491708773493</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B2250" t="n">
+        <v>0.4006779039443835</v>
+      </c>
+      <c r="C2250" t="n">
+        <v>0.4006779039443835</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>0.2657626826706343</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>0.376949067591125</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>0.3725637525561439</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.3540581062151322</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>0.3971891626144514</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2251" t="n">
+        <v>0.3871186612509179</v>
+      </c>
+      <c r="C2251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>0.3538982127693031</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.7389829294259114</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.4768175551861122</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.6030490873680399</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.704494304468533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel reports/x_train_dataset.xlsx
+++ b/Excel reports/x_train_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2251"/>
+  <dimension ref="A1:H2301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58970,6 +58970,1306 @@
         <v>0.2213178779060534</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B2252" t="n">
+        <v>0.001972431850843071</v>
+      </c>
+      <c r="C2252" t="n">
+        <v>0.1730766626287555</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.1227809671424379</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.1643759948351574</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.203589937129262</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.2124865409806972</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B2253" t="n">
+        <v>0.1178500756167847</v>
+      </c>
+      <c r="C2253" t="n">
+        <v>0.6518734904858284</v>
+      </c>
+      <c r="D2253" t="n">
+        <v>0.07593693334436862</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.5069033233764964</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.2622409458469688</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.2502535350134515</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.2360398835723611</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B2254" t="n">
+        <v>0.643490937271927</v>
+      </c>
+      <c r="C2254" t="n">
+        <v>0.6627216775640109</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>0.4452662387985584</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.4689346686028577</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.321296295205794</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.2838967863348984</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.2546714663748008</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2255" t="n">
+        <v>0.518737538278646</v>
+      </c>
+      <c r="C2255" t="n">
+        <v>0.518737538278646</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>0.3382643502599562</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.3555226587011971</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.3310752562044803</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.2949161513143293</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.2627395617609125</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B2256" t="n">
+        <v>0.3757394268172481</v>
+      </c>
+      <c r="C2256" t="n">
+        <v>0.5108481870781825</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>0.2953648039606642</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.4945759064609088</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.377789727706317</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.3256330367214955</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.2812864693369119</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B2257" t="n">
+        <v>0.4886586109083795</v>
+      </c>
+      <c r="C2257" t="n">
+        <v>0.8550294566877591</v>
+      </c>
+      <c r="D2257" t="n">
+        <v>0.435404079544343</v>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.834812688571708</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.508367716525</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.4039683677753746</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.3255685668756953</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B2258" t="n">
+        <v>0.834812688571708</v>
+      </c>
+      <c r="C2258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2258" t="n">
+        <v>0.5044376895122153</v>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.5172583084412409</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.5109078856439262</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.4213975894162773</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.3409037462009386</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B2259" t="n">
+        <v>0.458086857727584</v>
+      </c>
+      <c r="C2259" t="n">
+        <v>0.6479290029870511</v>
+      </c>
+      <c r="D2259" t="n">
+        <v>0.4319524178560948</v>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.6351083840580255</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.5463937423336687</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.4542761732073158</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.3644401172295058</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B2260" t="n">
+        <v>0.6425049094479599</v>
+      </c>
+      <c r="C2260" t="n">
+        <v>0.6691321751299781</v>
+      </c>
+      <c r="D2260" t="n">
+        <v>0.4684418427923285</v>
+      </c>
+      <c r="E2260" t="n">
+        <v>0.4723863302911058</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0.5252487674643648</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.4570623512202063</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>0.3730758142744336</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B2261" t="n">
+        <v>0.4871793810709744</v>
+      </c>
+      <c r="C2261" t="n">
+        <v>0.6148912397390657</v>
+      </c>
+      <c r="D2261" t="n">
+        <v>0.2953648039606642</v>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.396449773149646</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.4884490548030164</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.4477373392093508</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.3749457309844505</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2262" t="n">
+        <v>0.2613410128887116</v>
+      </c>
+      <c r="C2262" t="n">
+        <v>0.3145955442527482</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>0.07593693334436862</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.1094671461999744</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.3801685094878614</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.3956957710540618</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.3537074442016924</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2263" t="n">
+        <v>0.1074950905520402</v>
+      </c>
+      <c r="C2263" t="n">
+        <v>0.1346151820445876</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>0.01873753827864597</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.07396450149352554</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.292681650060908</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.3461986526601335</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.3313280087850389</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2264" t="n">
+        <v>0.06163708457793796</v>
+      </c>
+      <c r="C2264" t="n">
+        <v>0.3264297591548978</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>0.04191314227241605</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.2253451661688248</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.2734426546631696</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.3276058085845476</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.3228493813757415</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B2265" t="n">
+        <v>0.225837991979354</v>
+      </c>
+      <c r="C2265" t="n">
+        <v>0.268244336265208</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>0.185897281557781</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.2273175980196679</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.2602640670507406</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.3121768531130277</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.3152068387072559</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B2266" t="n">
+        <v>0.2406310427592226</v>
+      </c>
+      <c r="C2266" t="n">
+        <v>0.3200196377918394</v>
+      </c>
+      <c r="D2266" t="n">
+        <v>0.2292896536676022</v>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.2721891999668942</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.263671247883927</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.3060249064751609</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.3117654276080268</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B2267" t="n">
+        <v>0.2692307402920839</v>
+      </c>
+      <c r="C2267" t="n">
+        <v>0.4640037770772044</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>0.2085796835381131</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.4526627641884927</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.317668823970946</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.3285845768925963</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.3230372145344639</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B2268" t="n">
+        <v>0.4644969790906423</v>
+      </c>
+      <c r="C2268" t="n">
+        <v>0.5641023422393102</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>0.4215974327913504</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.5059169193496205</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.3714539940791388</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>0.3558664757321388</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>0.3376675909196763</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B2269" t="n">
+        <v>0.4921102725966277</v>
+      </c>
+      <c r="C2269" t="n">
+        <v>0.5443787761366971</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>0.4003942606484233</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.436883685584657</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.3901481916521441</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.3683306618632951</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>0.3456048784928747</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B2270" t="n">
+        <v>0.4265283243170036</v>
+      </c>
+      <c r="C2270" t="n">
+        <v>0.5167651064278029</v>
+      </c>
+      <c r="D2270" t="n">
+        <v>0.2726824019803321</v>
+      </c>
+      <c r="E2270" t="n">
+        <v>0.4822484895453212</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.4164625624787659</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>0.3858564815066834</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>0.3565363673770707</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B2271" t="n">
+        <v>0.4881654088949416</v>
+      </c>
+      <c r="C2271" t="n">
+        <v>0.5512820995131934</v>
+      </c>
+      <c r="D2271" t="n">
+        <v>0.3491121611352299</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>0.3668636715899087</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0.4022914507962354</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>0.3829345107502565</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>0.3573625517140978</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2272" t="n">
+        <v>0.3782050606815292</v>
+      </c>
+      <c r="C2272" t="n">
+        <v>0.3846151820445876</v>
+      </c>
+      <c r="D2272" t="n">
+        <v>0.2317552875318832</v>
+      </c>
+      <c r="E2272" t="n">
+        <v>0.2721891999668942</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0.3651193791307094</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>0.3658967706297393</v>
+      </c>
+      <c r="H2272" t="n">
+        <v>0.3505486835743215</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2273" t="n">
+        <v>0.2716959979534562</v>
+      </c>
+      <c r="C2273" t="n">
+        <v>0.3486193353247007</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>0.1967454686359635</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>0.2588757552273394</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0.3347640580154611</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>0.3494319990293702</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>0.3432148493065632</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B2274" t="n">
+        <v>0.2633134447395547</v>
+      </c>
+      <c r="C2274" t="n">
+        <v>0.3042405591880036</v>
+      </c>
+      <c r="D2274" t="n">
+        <v>0.0867847442196423</v>
+      </c>
+      <c r="E2274" t="n">
+        <v>0.2564101213630584</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0.3123772189719173</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.3351209409268604</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>0.3362704710710826</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2275" t="n">
+        <v>0.2322484895453212</v>
+      </c>
+      <c r="C2275" t="n">
+        <v>0.332347054707427</v>
+      </c>
+      <c r="D2275" t="n">
+        <v>0.1804731880186898</v>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.3308678248700219</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.3176602492285189</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.3344666153796544</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.335838259374998</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2276" t="n">
+        <v>0.2904339124350109</v>
+      </c>
+      <c r="C2276" t="n">
+        <v>0.6143984139285364</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>0.2445759064609088</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.6114395780508175</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.2622409458469688</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>0.2502535350134515</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>0.2360398835723611</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B2277" t="n">
+        <v>0.1010051247290894</v>
+      </c>
+      <c r="C2277" t="n">
+        <v>0.6452258971534692</v>
+      </c>
+      <c r="D2277" t="n">
+        <v>0.05829163684238171</v>
+      </c>
+      <c r="E2277" t="n">
+        <v>0.4974874757172493</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>0.2481531874165077</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>0.2359368729225356</v>
+      </c>
+      <c r="H2277" t="n">
+        <v>0.2214518070043342</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B2278" t="n">
+        <v>0.6366832762534539</v>
+      </c>
+      <c r="C2278" t="n">
+        <v>0.6562812340295506</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>0.4346734101819055</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>0.4587937966509644</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>0.3083362186263523</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>0.2702225534961398</v>
+      </c>
+      <c r="H2278" t="n">
+        <v>0.2404391661760645</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2279" t="n">
+        <v>0.5095476689517788</v>
+      </c>
+      <c r="C2279" t="n">
+        <v>0.5095476689517788</v>
+      </c>
+      <c r="D2279" t="n">
+        <v>0.3256282844253399</v>
+      </c>
+      <c r="E2279" t="n">
+        <v>0.3432161460979101</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>0.3183019121896542</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>0.2814523369733355</v>
+      </c>
+      <c r="H2279" t="n">
+        <v>0.2486613245698122</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B2280" t="n">
+        <v>0.363818960232455</v>
+      </c>
+      <c r="C2280" t="n">
+        <v>0.5015076679243026</v>
+      </c>
+      <c r="D2280" t="n">
+        <v>0.2819095567935536</v>
+      </c>
+      <c r="E2280" t="n">
+        <v>0.4849246626101805</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>0.3659084123098046</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>0.3127557716866964</v>
+      </c>
+      <c r="H2280" t="n">
+        <v>0.2675623916130414</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B2281" t="n">
+        <v>0.4788943742996005</v>
+      </c>
+      <c r="C2281" t="n">
+        <v>0.8522611951771495</v>
+      </c>
+      <c r="D2281" t="n">
+        <v>0.4246229296642722</v>
+      </c>
+      <c r="E2281" t="n">
+        <v>0.8316583810426046</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>0.4989798319477473</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>0.3925869423568365</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>0.3126900707674061</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B2282" t="n">
+        <v>0.8316583810426046</v>
+      </c>
+      <c r="C2282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2282" t="n">
+        <v>0.4949747597411834</v>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.5080401927207914</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0.5015685064543316</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.4103489808743682</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>0.3283180805236766</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B2283" t="n">
+        <v>0.4477388431615135</v>
+      </c>
+      <c r="C2283" t="n">
+        <v>0.6412060883330465</v>
+      </c>
+      <c r="D2283" t="n">
+        <v>0.4211053573297581</v>
+      </c>
+      <c r="E2283" t="n">
+        <v>0.6281406553534384</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0.5377319775683619</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.4438553923326869</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>0.3523038865100578</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B2284" t="n">
+        <v>0.6356784198950057</v>
+      </c>
+      <c r="C2284" t="n">
+        <v>0.6628141422126699</v>
+      </c>
+      <c r="D2284" t="n">
+        <v>0.4582915601650556</v>
+      </c>
+      <c r="E2284" t="n">
+        <v>0.4623113689854785</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>0.5161832322589665</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>0.4466947733561931</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>0.3611044851080912</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B2285" t="n">
+        <v>0.4773868980686132</v>
+      </c>
+      <c r="C2285" t="n">
+        <v>0.607537457832263</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>0.2819095567935536</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>0.3849247776261697</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0.4786808166495957</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.4371916970900356</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>0.3630101085095374</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2286" t="n">
+        <v>0.247236069934322</v>
+      </c>
+      <c r="C2286" t="n">
+        <v>0.3015075145696504</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>0.05829163684238171</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.09246212044244351</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.3683326177332663</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.3841563776057904</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.3413662694641699</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2287" t="n">
+        <v>0.09045240772554732</v>
+      </c>
+      <c r="C2287" t="n">
+        <v>0.1180903665291203</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>0.05628154073885504</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0.2791751671634342</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>0.3337140950108776</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>0.3185594911661446</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2288" t="n">
+        <v>0.04371872763178628</v>
+      </c>
+      <c r="C2288" t="n">
+        <v>0.3135677078041799</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>0.02361814998315016</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.2105528703581943</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.2595687966476511</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.3147662142950802</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.3099189615015082</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B2289" t="n">
+        <v>0.2110551068441031</v>
+      </c>
+      <c r="C2289" t="n">
+        <v>0.2542712146033501</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>0.1703517150609221</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.212562966461721</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.2461385594516712</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.2990426377053327</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.3021304818983255</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B2290" t="n">
+        <v>0.2261306359272378</v>
+      </c>
+      <c r="C2290" t="n">
+        <v>0.3070351830076911</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>0.2145726791786171</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.2582914068104034</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.2496108015541658</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.2927732175676511</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.2986233558912917</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B2291" t="n">
+        <v>0.2552764543484287</v>
+      </c>
+      <c r="C2291" t="n">
+        <v>0.453768748085463</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>0.1934672451715329</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.4422111747234728</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.3046394796025394</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.3157636725147004</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.3101103813978659</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B2292" t="n">
+        <v>0.4542713679580023</v>
+      </c>
+      <c r="C2292" t="n">
+        <v>0.5557787291730005</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>0.410552640326216</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.4964822359721707</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.3594516957081484</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.3435665284312346</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.3250201297638102</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B2293" t="n">
+        <v>0.4824119466341146</v>
+      </c>
+      <c r="C2293" t="n">
+        <v>0.5356785349109949</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>0.3889445864465925</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.42613078928189</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.3785028653006461</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.3562687224082582</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.3331089825252566</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B2294" t="n">
+        <v>0.4155776888917174</v>
+      </c>
+      <c r="C2294" t="n">
+        <v>0.5075375728482521</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>0.2587940266829427</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.4723618495031118</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.4053197179299218</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.3741292034997738</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.3442492118834852</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B2295" t="n">
+        <v>0.4783917544270613</v>
+      </c>
+      <c r="C2295" t="n">
+        <v>0.5427136795800229</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>0.3366832379147908</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.3547737194599003</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.3908780040813443</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.3711514367244086</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.3450911724895985</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2296" t="n">
+        <v>0.3663316762085209</v>
+      </c>
+      <c r="C2296" t="n">
+        <v>0.3728642010050097</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>0.2170853951546831</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.2582914068104034</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.3529961191467899</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.3537883551991771</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.3381471912352629</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2297" t="n">
+        <v>0.2577887869378642</v>
+      </c>
+      <c r="C2297" t="n">
+        <v>0.336181001428882</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>0.1814070519370034</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.2447237373448866</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.3220611529176748</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.337009183221594</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.3306733149240331</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B2298" t="n">
+        <v>0.2492461660378487</v>
+      </c>
+      <c r="C2298" t="n">
+        <v>0.2909547975661083</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>0.06934659033183263</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.2422110213688206</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.2992468296180021</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.3224248506288594</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.3235963314396159</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2299" t="n">
+        <v>0.2175880150272224</v>
+      </c>
+      <c r="C2299" t="n">
+        <v>0.3195979961147599</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>0.1648240466228814</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.3180905198837725</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.3046307411225083</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.3217580305142306</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.3231558665151487</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B2300" t="n">
+        <v>0.2768845082280522</v>
+      </c>
+      <c r="C2300" t="n">
+        <v>0.4085425442226894</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>0.2301508281342911</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.339698573763396</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.3146501218770475</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.3245181140910253</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.3244792830950087</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2301" t="n">
+        <v>0.3216080922182866</v>
+      </c>
+      <c r="C2301" t="n">
+        <v>0.821105280652432</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>0.2919596539245564</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.8130652796249559</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.3083362186263523</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.2702225534961398</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.2404391661760645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel reports/x_train_dataset.xlsx
+++ b/Excel reports/x_train_dataset.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>APISentiment</t>
+          <t>CombinedVaderSentiment</t>
         </is>
       </c>
     </row>
@@ -58443,7 +58443,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2000" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2001">
@@ -59139,7 +59139,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2024" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2025">
@@ -59168,7 +59168,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2025" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2026">
@@ -59835,7 +59835,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2048" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2049">
@@ -59864,7 +59864,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2049" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2050">
@@ -59893,7 +59893,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2050" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2051">
@@ -60531,7 +60531,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2072" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2073">
@@ -60560,7 +60560,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2073" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2074">
@@ -60589,7 +60589,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2074" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2075">
@@ -60618,7 +60618,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2075" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2076">
@@ -61227,7 +61227,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2096" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2097">
@@ -61256,7 +61256,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2097" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2098">
@@ -61285,7 +61285,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2098" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2099">
@@ -61314,7 +61314,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2099" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2100">
@@ -61343,7 +61343,7 @@
         <v>0.3450951219595335</v>
       </c>
       <c r="I2100" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2101">
@@ -61923,7 +61923,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2120" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2121">
@@ -61952,7 +61952,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2121" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2122">
@@ -61981,7 +61981,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2122" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2123">
@@ -62010,7 +62010,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2123" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2124">
@@ -62039,7 +62039,7 @@
         <v>0.3450951219595335</v>
       </c>
       <c r="I2124" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2125">
@@ -62068,7 +62068,7 @@
         <v>0.3529433991672206</v>
       </c>
       <c r="I2125" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="2126">
@@ -62619,7 +62619,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2144" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2145">
@@ -62648,7 +62648,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2145" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2146">
@@ -62677,7 +62677,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2146" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2147">
@@ -62706,7 +62706,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2147" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2148">
@@ -62735,7 +62735,7 @@
         <v>0.3450951219595335</v>
       </c>
       <c r="I2148" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2149">
@@ -62764,7 +62764,7 @@
         <v>0.3529433991672206</v>
       </c>
       <c r="I2149" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="2150">
@@ -62793,7 +62793,7 @@
         <v>0.363752300100282</v>
       </c>
       <c r="I2150" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2151">
@@ -63315,7 +63315,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2168" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2169">
@@ -63344,7 +63344,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2169" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2170">
@@ -63373,7 +63373,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2170" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2171">
@@ -63402,7 +63402,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2171" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2172">
@@ -63431,7 +63431,7 @@
         <v>0.3450951219595335</v>
       </c>
       <c r="I2172" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2173">
@@ -63460,7 +63460,7 @@
         <v>0.3529433991672206</v>
       </c>
       <c r="I2173" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="2174">
@@ -63489,7 +63489,7 @@
         <v>0.363752300100282</v>
       </c>
       <c r="I2174" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2175">
@@ -63518,7 +63518,7 @@
         <v>0.364569219437252</v>
       </c>
       <c r="I2175" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2176">
@@ -64011,7 +64011,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2192" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2193">
@@ -64040,7 +64040,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2193" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2194">
@@ -64069,7 +64069,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2194" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2195">
@@ -64098,7 +64098,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2195" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2196">
@@ -64127,7 +64127,7 @@
         <v>0.3450951219595335</v>
       </c>
       <c r="I2196" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2197">
@@ -64156,7 +64156,7 @@
         <v>0.3529433991672206</v>
       </c>
       <c r="I2197" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="2198">
@@ -64185,7 +64185,7 @@
         <v>0.363752300100282</v>
       </c>
       <c r="I2198" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2199">
@@ -64214,7 +64214,7 @@
         <v>0.364569219437252</v>
       </c>
       <c r="I2199" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2200">
@@ -64243,7 +64243,7 @@
         <v>0.3578317634077935</v>
       </c>
       <c r="I2200" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="2201">
@@ -64707,7 +64707,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2216" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2217">
@@ -64736,7 +64736,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2217" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2218">
@@ -64765,7 +64765,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2218" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2219">
@@ -64794,7 +64794,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2219" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2220">
@@ -64823,7 +64823,7 @@
         <v>0.3450951219595335</v>
       </c>
       <c r="I2220" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2221">
@@ -64852,7 +64852,7 @@
         <v>0.3529433991672206</v>
       </c>
       <c r="I2221" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="2222">
@@ -64881,7 +64881,7 @@
         <v>0.363752300100282</v>
       </c>
       <c r="I2222" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2223">
@@ -64910,7 +64910,7 @@
         <v>0.364569219437252</v>
       </c>
       <c r="I2223" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2224">
@@ -64939,7 +64939,7 @@
         <v>0.3578317634077935</v>
       </c>
       <c r="I2224" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="2225">
@@ -64968,7 +64968,7 @@
         <v>0.3505801722568118</v>
       </c>
       <c r="I2225" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="2226">
@@ -65403,7 +65403,7 @@
         <v>0.3304430868467963</v>
       </c>
       <c r="I2240" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2241">
@@ -65432,7 +65432,7 @@
         <v>0.3228862492142041</v>
       </c>
       <c r="I2241" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2242">
@@ -65461,7 +65461,7 @@
         <v>0.3194834308025893</v>
       </c>
       <c r="I2242" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2243">
@@ -65490,7 +65490,7 @@
         <v>0.3306288136060769</v>
       </c>
       <c r="I2243" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2244">
@@ -65519,7 +65519,7 @@
         <v>0.3450951219595335</v>
       </c>
       <c r="I2244" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2245">
@@ -65548,7 +65548,7 @@
         <v>0.3529433991672206</v>
       </c>
       <c r="I2245" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="2246">
@@ -65577,7 +65577,7 @@
         <v>0.363752300100282</v>
       </c>
       <c r="I2246" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2247">
@@ -65606,7 +65606,7 @@
         <v>0.364569219437252</v>
       </c>
       <c r="I2247" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2248">
@@ -65635,7 +65635,7 @@
         <v>0.3578317634077935</v>
       </c>
       <c r="I2248" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="2249">
@@ -65664,7 +65664,7 @@
         <v>0.3505801722568118</v>
       </c>
       <c r="I2249" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="2250">
@@ -65693,7 +65693,7 @@
         <v>0.3437136696985432</v>
       </c>
       <c r="I2250" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="2251">
@@ -66099,7 +66099,7 @@
         <v>0.3228493813757415</v>
       </c>
       <c r="I2264" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="2265">
@@ -66128,7 +66128,7 @@
         <v>0.3152068387072559</v>
       </c>
       <c r="I2265" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="2266">
@@ -66157,7 +66157,7 @@
         <v>0.3117654276080268</v>
       </c>
       <c r="I2266" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="2267">
@@ -66186,7 +66186,7 @@
         <v>0.3230372145344639</v>
       </c>
       <c r="I2267" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="2268">
@@ -66215,7 +66215,7 @@
         <v>0.3376675909196763</v>
       </c>
       <c r="I2268" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2269">
@@ -66244,7 +66244,7 @@
         <v>0.3456048784928747</v>
       </c>
       <c r="I2269" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="2270">
@@ -66273,7 +66273,7 @@
         <v>0.3565363673770707</v>
       </c>
       <c r="I2270" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2271">
@@ -66302,7 +66302,7 @@
         <v>0.3573625517140978</v>
       </c>
       <c r="I2271" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="2272">
@@ -66331,7 +66331,7 @@
         <v>0.3505486835743215</v>
       </c>
       <c r="I2272" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="2273">
@@ -66360,7 +66360,7 @@
         <v>0.3432148493065632</v>
       </c>
       <c r="I2273" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="2274">
@@ -66389,7 +66389,7 @@
         <v>0.3362704710710826</v>
       </c>
       <c r="I2274" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="2275">
@@ -66418,7 +66418,7 @@
         <v>0.335838259374998</v>
       </c>
       <c r="I2275" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="2276">

--- a/Excel reports/x_train_dataset.xlsx
+++ b/Excel reports/x_train_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67900,731 +67900,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2327">
-      <c r="A2327" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B2327" t="n">
-        <v>0.5095476689517788</v>
-      </c>
-      <c r="C2327" t="n">
-        <v>0.5095476689517788</v>
-      </c>
-      <c r="D2327" t="n">
-        <v>0.3256282844253399</v>
-      </c>
-      <c r="E2327" t="n">
-        <v>0.3432161460979101</v>
-      </c>
-      <c r="F2327" t="n">
-        <v>0.3183019121896542</v>
-      </c>
-      <c r="G2327" t="n">
-        <v>0.2814523369733355</v>
-      </c>
-      <c r="H2327" t="n">
-        <v>0.2486613245698122</v>
-      </c>
-      <c r="I2327" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2328">
-      <c r="A2328" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B2328" t="n">
-        <v>0.363818960232455</v>
-      </c>
-      <c r="C2328" t="n">
-        <v>0.5015076679243026</v>
-      </c>
-      <c r="D2328" t="n">
-        <v>0.2819095567935536</v>
-      </c>
-      <c r="E2328" t="n">
-        <v>0.4849246626101805</v>
-      </c>
-      <c r="F2328" t="n">
-        <v>0.3659084123098046</v>
-      </c>
-      <c r="G2328" t="n">
-        <v>0.3127557716866964</v>
-      </c>
-      <c r="H2328" t="n">
-        <v>0.2675623916130414</v>
-      </c>
-      <c r="I2328" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2329">
-      <c r="A2329" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B2329" t="n">
-        <v>0.4788943742996005</v>
-      </c>
-      <c r="C2329" t="n">
-        <v>0.8522611951771495</v>
-      </c>
-      <c r="D2329" t="n">
-        <v>0.4246229296642722</v>
-      </c>
-      <c r="E2329" t="n">
-        <v>0.8316583810426046</v>
-      </c>
-      <c r="F2329" t="n">
-        <v>0.4989798319477473</v>
-      </c>
-      <c r="G2329" t="n">
-        <v>0.3925869423568365</v>
-      </c>
-      <c r="H2329" t="n">
-        <v>0.3126900707674061</v>
-      </c>
-      <c r="I2329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2330">
-      <c r="A2330" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B2330" t="n">
-        <v>0.8316583810426046</v>
-      </c>
-      <c r="C2330" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2330" t="n">
-        <v>0.4949747597411834</v>
-      </c>
-      <c r="E2330" t="n">
-        <v>0.5080401927207914</v>
-      </c>
-      <c r="F2330" t="n">
-        <v>0.5015685064543316</v>
-      </c>
-      <c r="G2330" t="n">
-        <v>0.4103489808743682</v>
-      </c>
-      <c r="H2330" t="n">
-        <v>0.3283180805236766</v>
-      </c>
-      <c r="I2330" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2331">
-      <c r="A2331" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B2331" t="n">
-        <v>0.4477388431615135</v>
-      </c>
-      <c r="C2331" t="n">
-        <v>0.6412060883330465</v>
-      </c>
-      <c r="D2331" t="n">
-        <v>0.4211053573297581</v>
-      </c>
-      <c r="E2331" t="n">
-        <v>0.6281406553534384</v>
-      </c>
-      <c r="F2331" t="n">
-        <v>0.5377319775683619</v>
-      </c>
-      <c r="G2331" t="n">
-        <v>0.4438553923326869</v>
-      </c>
-      <c r="H2331" t="n">
-        <v>0.3523038865100578</v>
-      </c>
-      <c r="I2331" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2332">
-      <c r="A2332" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B2332" t="n">
-        <v>0.6356784198950057</v>
-      </c>
-      <c r="C2332" t="n">
-        <v>0.6628141422126699</v>
-      </c>
-      <c r="D2332" t="n">
-        <v>0.4582915601650556</v>
-      </c>
-      <c r="E2332" t="n">
-        <v>0.4623113689854785</v>
-      </c>
-      <c r="F2332" t="n">
-        <v>0.5161832322589665</v>
-      </c>
-      <c r="G2332" t="n">
-        <v>0.4466947733561931</v>
-      </c>
-      <c r="H2332" t="n">
-        <v>0.3611044851080912</v>
-      </c>
-      <c r="I2332" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2333">
-      <c r="A2333" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B2333" t="n">
-        <v>0.4773868980686132</v>
-      </c>
-      <c r="C2333" t="n">
-        <v>0.607537457832263</v>
-      </c>
-      <c r="D2333" t="n">
-        <v>0.2819095567935536</v>
-      </c>
-      <c r="E2333" t="n">
-        <v>0.3849247776261697</v>
-      </c>
-      <c r="F2333" t="n">
-        <v>0.4786808166495957</v>
-      </c>
-      <c r="G2333" t="n">
-        <v>0.4371916970900356</v>
-      </c>
-      <c r="H2333" t="n">
-        <v>0.3630101085095374</v>
-      </c>
-      <c r="I2333" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2334">
-      <c r="A2334" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B2334" t="n">
-        <v>0.247236069934322</v>
-      </c>
-      <c r="C2334" t="n">
-        <v>0.3015075145696504</v>
-      </c>
-      <c r="D2334" t="n">
-        <v>0.05829163684238171</v>
-      </c>
-      <c r="E2334" t="n">
-        <v>0.09246212044244351</v>
-      </c>
-      <c r="F2334" t="n">
-        <v>0.3683326177332663</v>
-      </c>
-      <c r="G2334" t="n">
-        <v>0.3841563776057904</v>
-      </c>
-      <c r="H2334" t="n">
-        <v>0.3413662694641699</v>
-      </c>
-      <c r="I2334" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2335">
-      <c r="A2335" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B2335" t="n">
-        <v>0.09045240772554732</v>
-      </c>
-      <c r="C2335" t="n">
-        <v>0.1180903665291203</v>
-      </c>
-      <c r="D2335" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2335" t="n">
-        <v>0.05628154073885504</v>
-      </c>
-      <c r="F2335" t="n">
-        <v>0.2791751671634342</v>
-      </c>
-      <c r="G2335" t="n">
-        <v>0.3337140950108776</v>
-      </c>
-      <c r="H2335" t="n">
-        <v>0.3185594911661446</v>
-      </c>
-      <c r="I2335" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2336">
-      <c r="A2336" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B2336" t="n">
-        <v>0.04371872763178628</v>
-      </c>
-      <c r="C2336" t="n">
-        <v>0.3135677078041799</v>
-      </c>
-      <c r="D2336" t="n">
-        <v>0.02361814998315016</v>
-      </c>
-      <c r="E2336" t="n">
-        <v>0.2105528703581943</v>
-      </c>
-      <c r="F2336" t="n">
-        <v>0.2595687966476511</v>
-      </c>
-      <c r="G2336" t="n">
-        <v>0.3147662142950802</v>
-      </c>
-      <c r="H2336" t="n">
-        <v>0.3099189615015082</v>
-      </c>
-      <c r="I2336" t="n">
-        <v>1.3612</v>
-      </c>
-    </row>
-    <row r="2337">
-      <c r="A2337" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B2337" t="n">
-        <v>0.2110551068441031</v>
-      </c>
-      <c r="C2337" t="n">
-        <v>0.2542712146033501</v>
-      </c>
-      <c r="D2337" t="n">
-        <v>0.1703517150609221</v>
-      </c>
-      <c r="E2337" t="n">
-        <v>0.212562966461721</v>
-      </c>
-      <c r="F2337" t="n">
-        <v>0.2461385594516712</v>
-      </c>
-      <c r="G2337" t="n">
-        <v>0.2990426377053327</v>
-      </c>
-      <c r="H2337" t="n">
-        <v>0.3021304818983255</v>
-      </c>
-      <c r="I2337" t="n">
-        <v>0.56335</v>
-      </c>
-    </row>
-    <row r="2338">
-      <c r="A2338" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B2338" t="n">
-        <v>0.2261306359272378</v>
-      </c>
-      <c r="C2338" t="n">
-        <v>0.3070351830076911</v>
-      </c>
-      <c r="D2338" t="n">
-        <v>0.2145726791786171</v>
-      </c>
-      <c r="E2338" t="n">
-        <v>0.2582914068104034</v>
-      </c>
-      <c r="F2338" t="n">
-        <v>0.2496108015541658</v>
-      </c>
-      <c r="G2338" t="n">
-        <v>0.2927732175676511</v>
-      </c>
-      <c r="H2338" t="n">
-        <v>0.2986233558912917</v>
-      </c>
-      <c r="I2338" t="n">
-        <v>0.5781000000000001</v>
-      </c>
-    </row>
-    <row r="2339">
-      <c r="A2339" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B2339" t="n">
-        <v>0.2552764543484287</v>
-      </c>
-      <c r="C2339" t="n">
-        <v>0.453768748085463</v>
-      </c>
-      <c r="D2339" t="n">
-        <v>0.1934672451715329</v>
-      </c>
-      <c r="E2339" t="n">
-        <v>0.4422111747234728</v>
-      </c>
-      <c r="F2339" t="n">
-        <v>0.3046394796025394</v>
-      </c>
-      <c r="G2339" t="n">
-        <v>0.3157636725147004</v>
-      </c>
-      <c r="H2339" t="n">
-        <v>0.3101103813978659</v>
-      </c>
-      <c r="I2339" t="n">
-        <v>0.852</v>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B2340" t="n">
-        <v>0.4542713679580023</v>
-      </c>
-      <c r="C2340" t="n">
-        <v>0.5557787291730005</v>
-      </c>
-      <c r="D2340" t="n">
-        <v>0.410552640326216</v>
-      </c>
-      <c r="E2340" t="n">
-        <v>0.4964822359721707</v>
-      </c>
-      <c r="F2340" t="n">
-        <v>0.3594516957081484</v>
-      </c>
-      <c r="G2340" t="n">
-        <v>0.3435665284312346</v>
-      </c>
-      <c r="H2340" t="n">
-        <v>0.3250201297638102</v>
-      </c>
-      <c r="I2340" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B2341" t="n">
-        <v>0.4824119466341146</v>
-      </c>
-      <c r="C2341" t="n">
-        <v>0.5356785349109949</v>
-      </c>
-      <c r="D2341" t="n">
-        <v>0.3889445864465925</v>
-      </c>
-      <c r="E2341" t="n">
-        <v>0.42613078928189</v>
-      </c>
-      <c r="F2341" t="n">
-        <v>0.3785028653006461</v>
-      </c>
-      <c r="G2341" t="n">
-        <v>0.3562687224082582</v>
-      </c>
-      <c r="H2341" t="n">
-        <v>0.3331089825252566</v>
-      </c>
-      <c r="I2341" t="n">
-        <v>0.9924999999999999</v>
-      </c>
-    </row>
-    <row r="2342">
-      <c r="A2342" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B2342" t="n">
-        <v>0.4155776888917174</v>
-      </c>
-      <c r="C2342" t="n">
-        <v>0.5075375728482521</v>
-      </c>
-      <c r="D2342" t="n">
-        <v>0.2587940266829427</v>
-      </c>
-      <c r="E2342" t="n">
-        <v>0.4723618495031118</v>
-      </c>
-      <c r="F2342" t="n">
-        <v>0.4053197179299218</v>
-      </c>
-      <c r="G2342" t="n">
-        <v>0.3741292034997738</v>
-      </c>
-      <c r="H2342" t="n">
-        <v>0.3442492118834852</v>
-      </c>
-      <c r="I2342" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B2343" t="n">
-        <v>0.4783917544270613</v>
-      </c>
-      <c r="C2343" t="n">
-        <v>0.5427136795800229</v>
-      </c>
-      <c r="D2343" t="n">
-        <v>0.3366832379147908</v>
-      </c>
-      <c r="E2343" t="n">
-        <v>0.3547737194599003</v>
-      </c>
-      <c r="F2343" t="n">
-        <v>0.3908780040813443</v>
-      </c>
-      <c r="G2343" t="n">
-        <v>0.3711514367244086</v>
-      </c>
-      <c r="H2343" t="n">
-        <v>0.3450911724895985</v>
-      </c>
-      <c r="I2343" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B2344" t="n">
-        <v>0.3663316762085209</v>
-      </c>
-      <c r="C2344" t="n">
-        <v>0.3728642010050097</v>
-      </c>
-      <c r="D2344" t="n">
-        <v>0.2170853951546831</v>
-      </c>
-      <c r="E2344" t="n">
-        <v>0.2582914068104034</v>
-      </c>
-      <c r="F2344" t="n">
-        <v>0.3529961191467899</v>
-      </c>
-      <c r="G2344" t="n">
-        <v>0.3537883551991771</v>
-      </c>
-      <c r="H2344" t="n">
-        <v>0.3381471912352629</v>
-      </c>
-      <c r="I2344" t="n">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="2345">
-      <c r="A2345" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B2345" t="n">
-        <v>0.2577887869378642</v>
-      </c>
-      <c r="C2345" t="n">
-        <v>0.336181001428882</v>
-      </c>
-      <c r="D2345" t="n">
-        <v>0.1814070519370034</v>
-      </c>
-      <c r="E2345" t="n">
-        <v>0.2447237373448866</v>
-      </c>
-      <c r="F2345" t="n">
-        <v>0.3220611529176748</v>
-      </c>
-      <c r="G2345" t="n">
-        <v>0.337009183221594</v>
-      </c>
-      <c r="H2345" t="n">
-        <v>0.3306733149240331</v>
-      </c>
-      <c r="I2345" t="n">
-        <v>0.8704499999999999</v>
-      </c>
-    </row>
-    <row r="2346">
-      <c r="A2346" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B2346" t="n">
-        <v>0.2492461660378487</v>
-      </c>
-      <c r="C2346" t="n">
-        <v>0.2909547975661083</v>
-      </c>
-      <c r="D2346" t="n">
-        <v>0.06934659033183263</v>
-      </c>
-      <c r="E2346" t="n">
-        <v>0.2422110213688206</v>
-      </c>
-      <c r="F2346" t="n">
-        <v>0.2992468296180021</v>
-      </c>
-      <c r="G2346" t="n">
-        <v>0.3224248506288594</v>
-      </c>
-      <c r="H2346" t="n">
-        <v>0.3235963314396159</v>
-      </c>
-      <c r="I2346" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-    </row>
-    <row r="2347">
-      <c r="A2347" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B2347" t="n">
-        <v>0.2175880150272224</v>
-      </c>
-      <c r="C2347" t="n">
-        <v>0.3195979961147599</v>
-      </c>
-      <c r="D2347" t="n">
-        <v>0.1648240466228814</v>
-      </c>
-      <c r="E2347" t="n">
-        <v>0.3180905198837725</v>
-      </c>
-      <c r="F2347" t="n">
-        <v>0.3046307411225083</v>
-      </c>
-      <c r="G2347" t="n">
-        <v>0.3217580305142306</v>
-      </c>
-      <c r="H2347" t="n">
-        <v>0.3231558665151487</v>
-      </c>
-      <c r="I2347" t="n">
-        <v>1.1598</v>
-      </c>
-    </row>
-    <row r="2348">
-      <c r="A2348" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B2348" t="n">
-        <v>0.2768845082280522</v>
-      </c>
-      <c r="C2348" t="n">
-        <v>0.4085425442226894</v>
-      </c>
-      <c r="D2348" t="n">
-        <v>0.2301508281342911</v>
-      </c>
-      <c r="E2348" t="n">
-        <v>0.339698573763396</v>
-      </c>
-      <c r="F2348" t="n">
-        <v>0.3146501218770475</v>
-      </c>
-      <c r="G2348" t="n">
-        <v>0.3245181140910253</v>
-      </c>
-      <c r="H2348" t="n">
-        <v>0.3244792830950087</v>
-      </c>
-      <c r="I2348" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="2349">
-      <c r="A2349" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B2349" t="n">
-        <v>0.3216080922182866</v>
-      </c>
-      <c r="C2349" t="n">
-        <v>0.4140702126607301</v>
-      </c>
-      <c r="D2349" t="n">
-        <v>0.2919596539245564</v>
-      </c>
-      <c r="E2349" t="n">
-        <v>0.3824120616501037</v>
-      </c>
-      <c r="F2349" t="n">
-        <v>0.3340106760979204</v>
-      </c>
-      <c r="G2349" t="n">
-        <v>0.3334248752539602</v>
-      </c>
-      <c r="H2349" t="n">
-        <v>0.3291139053794162</v>
-      </c>
-      <c r="I2349" t="n">
-        <v>0.19515</v>
-      </c>
-    </row>
-    <row r="2350">
-      <c r="A2350" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B2350" t="n">
-        <v>0.410552640326216</v>
-      </c>
-      <c r="C2350" t="n">
-        <v>0.4964822359721707</v>
-      </c>
-      <c r="D2350" t="n">
-        <v>0.3653264364634424</v>
-      </c>
-      <c r="E2350" t="n">
-        <v>0.4944721398686441</v>
-      </c>
-      <c r="F2350" t="n">
-        <v>0.3798568086038411</v>
-      </c>
-      <c r="G2350" t="n">
-        <v>0.3582013775023733</v>
-      </c>
-      <c r="H2350" t="n">
-        <v>0.3423425641385544</v>
-      </c>
-      <c r="I2350" t="n">
-        <v>0.86225</v>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2351" t="n">
-        <v>0.4959799994862619</v>
-      </c>
-      <c r="C2351" t="n">
-        <v>0.9035176873505032</v>
-      </c>
-      <c r="D2351" t="n">
-        <v>0.4638192286030963</v>
-      </c>
-      <c r="E2351" t="n">
-        <v>0.6577887102605381</v>
-      </c>
-      <c r="F2351" t="n">
-        <v>0.3659084123098046</v>
-      </c>
-      <c r="G2351" t="n">
-        <v>0.3127557716866964</v>
-      </c>
-      <c r="H2351" t="n">
-        <v>0.2675623916130414</v>
-      </c>
-      <c r="I2351" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
